--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Jam2-Jam3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Jam2-Jam3.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>93.83570850000001</v>
+        <v>85.2716025</v>
       </c>
       <c r="H2">
-        <v>187.671417</v>
+        <v>170.543205</v>
       </c>
       <c r="I2">
-        <v>0.5679500693534724</v>
+        <v>0.9297808351379414</v>
       </c>
       <c r="J2">
-        <v>0.4713618706519806</v>
+        <v>0.9048045315944306</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.2299415</v>
+        <v>16.237235</v>
       </c>
       <c r="N2">
-        <v>30.459883</v>
+        <v>32.47447</v>
       </c>
       <c r="O2">
-        <v>0.1927598375940027</v>
+        <v>0.3086011230749113</v>
       </c>
       <c r="P2">
-        <v>0.1676120348236415</v>
+        <v>0.2719759049954359</v>
       </c>
       <c r="Q2">
-        <v>1429.112351066053</v>
+        <v>1384.575048619087</v>
       </c>
       <c r="R2">
-        <v>5716.449404264212</v>
+        <v>5538.300194476349</v>
       </c>
       <c r="S2">
-        <v>0.1094779631300779</v>
+        <v>0.2869314099370976</v>
       </c>
       <c r="T2">
-        <v>0.07900592227825659</v>
+        <v>0.2460850313243668</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>93.83570850000001</v>
+        <v>85.2716025</v>
       </c>
       <c r="H3">
-        <v>187.671417</v>
+        <v>170.543205</v>
       </c>
       <c r="I3">
-        <v>0.5679500693534724</v>
+        <v>0.9297808351379414</v>
       </c>
       <c r="J3">
-        <v>0.4713618706519806</v>
+        <v>0.9048045315944306</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>30.470581</v>
       </c>
       <c r="O3">
-        <v>0.1285516919627236</v>
+        <v>0.1930389321692816</v>
       </c>
       <c r="P3">
-        <v>0.1676709028615963</v>
+        <v>0.2551931977092077</v>
       </c>
       <c r="Q3">
-        <v>953.0761855138795</v>
+        <v>866.0917569920174</v>
       </c>
       <c r="R3">
-        <v>5718.457113083277</v>
+        <v>5196.550541952105</v>
       </c>
       <c r="S3">
-        <v>0.0730109423657351</v>
+        <v>0.179483899566491</v>
       </c>
       <c r="T3">
-        <v>0.07903367042674857</v>
+        <v>0.2308999617193646</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>93.83570850000001</v>
+        <v>85.2716025</v>
       </c>
       <c r="H4">
-        <v>187.671417</v>
+        <v>170.543205</v>
       </c>
       <c r="I4">
-        <v>0.5679500693534724</v>
+        <v>0.9297808351379414</v>
       </c>
       <c r="J4">
-        <v>0.4713618706519806</v>
+        <v>0.9048045315944306</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.6885453333333333</v>
+        <v>0.2591196666666667</v>
       </c>
       <c r="N4">
-        <v>2.065636</v>
+        <v>0.777359</v>
       </c>
       <c r="O4">
-        <v>0.008714668183685523</v>
+        <v>0.004924768296087973</v>
       </c>
       <c r="P4">
-        <v>0.01136660482789667</v>
+        <v>0.006510434736312774</v>
       </c>
       <c r="Q4">
-        <v>64.610139187702</v>
+        <v>22.0955492159325</v>
       </c>
       <c r="R4">
-        <v>387.660835126212</v>
+        <v>132.573295295595</v>
       </c>
       <c r="S4">
-        <v>0.004949496399316692</v>
+        <v>0.004578955179197533</v>
       </c>
       <c r="T4">
-        <v>0.005357784114639207</v>
+        <v>0.005890670852065591</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>93.83570850000001</v>
+        <v>85.2716025</v>
       </c>
       <c r="H5">
-        <v>187.671417</v>
+        <v>170.543205</v>
       </c>
       <c r="I5">
-        <v>0.5679500693534724</v>
+        <v>0.9297808351379414</v>
       </c>
       <c r="J5">
-        <v>0.4713618706519806</v>
+        <v>0.9048045315944306</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>40.071356</v>
+        <v>22.207571</v>
       </c>
       <c r="N5">
-        <v>80.142712</v>
+        <v>44.415142</v>
       </c>
       <c r="O5">
-        <v>0.5071685977737647</v>
+        <v>0.422071944599301</v>
       </c>
       <c r="P5">
-        <v>0.4410024501605956</v>
+        <v>0.3719798488151091</v>
       </c>
       <c r="Q5">
-        <v>3760.124080815727</v>
+        <v>1893.675166802528</v>
       </c>
       <c r="R5">
-        <v>15040.49632326291</v>
+        <v>7574.700667210111</v>
       </c>
       <c r="S5">
-        <v>0.288046440279513</v>
+        <v>0.3924344051378331</v>
       </c>
       <c r="T5">
-        <v>0.2078717398698052</v>
+        <v>0.3365690528697219</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>93.83570850000001</v>
+        <v>85.2716025</v>
       </c>
       <c r="H6">
-        <v>187.671417</v>
+        <v>170.543205</v>
       </c>
       <c r="I6">
-        <v>0.5679500693534724</v>
+        <v>0.9297808351379414</v>
       </c>
       <c r="J6">
-        <v>0.4713618706519806</v>
+        <v>0.9048045315944306</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>11.700101</v>
+        <v>3.500938</v>
       </c>
       <c r="N6">
-        <v>35.100303</v>
+        <v>10.502814</v>
       </c>
       <c r="O6">
-        <v>0.1480839285294319</v>
+        <v>0.06653801577766373</v>
       </c>
       <c r="P6">
-        <v>0.1931469404776233</v>
+        <v>0.08796178483124543</v>
       </c>
       <c r="Q6">
-        <v>1097.887266856559</v>
+        <v>298.530593513145</v>
       </c>
       <c r="R6">
-        <v>6587.323601139353</v>
+        <v>1791.18356107887</v>
       </c>
       <c r="S6">
-        <v>0.08410427747842548</v>
+        <v>0.0618657718781777</v>
       </c>
       <c r="T6">
-        <v>0.09104210317423926</v>
+        <v>0.07958822152244512</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>93.83570850000001</v>
+        <v>85.2716025</v>
       </c>
       <c r="H7">
-        <v>187.671417</v>
+        <v>170.543205</v>
       </c>
       <c r="I7">
-        <v>0.5679500693534724</v>
+        <v>0.9297808351379414</v>
       </c>
       <c r="J7">
-        <v>0.4713618706519806</v>
+        <v>0.9048045315944306</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>1.163127</v>
+        <v>0.2538816666666667</v>
       </c>
       <c r="N7">
-        <v>3.489381</v>
+        <v>0.761645</v>
       </c>
       <c r="O7">
-        <v>0.01472127595639153</v>
+        <v>0.00482521608275446</v>
       </c>
       <c r="P7">
-        <v>0.01920106684864657</v>
+        <v>0.006378828912688916</v>
       </c>
       <c r="Q7">
-        <v>109.1428461204795</v>
+        <v>21.6488965620375</v>
       </c>
       <c r="R7">
-        <v>654.8570767228771</v>
+        <v>129.893379372225</v>
       </c>
       <c r="S7">
-        <v>0.008360949700404175</v>
+        <v>0.004486393439144468</v>
       </c>
       <c r="T7">
-        <v>0.009050650788291776</v>
+        <v>0.005771593306466506</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>10.615182</v>
       </c>
       <c r="I8">
-        <v>0.02141648579016069</v>
+        <v>0.03858178844905701</v>
       </c>
       <c r="J8">
-        <v>0.02666144970190763</v>
+        <v>0.05631807363594247</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>15.2299415</v>
+        <v>16.237235</v>
       </c>
       <c r="N8">
-        <v>30.459883</v>
+        <v>32.47447</v>
       </c>
       <c r="O8">
-        <v>0.1927598375940027</v>
+        <v>0.3086011230749113</v>
       </c>
       <c r="P8">
-        <v>0.1676120348236415</v>
+        <v>0.2719759049954359</v>
       </c>
       <c r="Q8">
-        <v>53.889533623951</v>
+        <v>57.45373490059</v>
       </c>
       <c r="R8">
-        <v>323.337201743706</v>
+        <v>344.72240940354</v>
       </c>
       <c r="S8">
-        <v>0.00412823832274564</v>
+        <v>0.01190638324561763</v>
       </c>
       <c r="T8">
-        <v>0.004468779835884909</v>
+        <v>0.01531715904473505</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>10.615182</v>
       </c>
       <c r="I9">
-        <v>0.02141648579016069</v>
+        <v>0.03858178844905701</v>
       </c>
       <c r="J9">
-        <v>0.02666144970190763</v>
+        <v>0.05631807363594247</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>30.470581</v>
       </c>
       <c r="O9">
-        <v>0.1285516919627236</v>
+        <v>0.1930389321692816</v>
       </c>
       <c r="P9">
-        <v>0.1676709028615963</v>
+        <v>0.2551931977092077</v>
       </c>
       <c r="Q9">
         <v>35.93897366230467</v>
@@ -1013,10 +1013,10 @@
         <v>323.450762960742</v>
       </c>
       <c r="S9">
-        <v>0.002753125484220784</v>
+        <v>0.007447787243387087</v>
       </c>
       <c r="T9">
-        <v>0.004470349343117891</v>
+        <v>0.01437198929997879</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,40 +1045,40 @@
         <v>10.615182</v>
       </c>
       <c r="I10">
-        <v>0.02141648579016069</v>
+        <v>0.03858178844905701</v>
       </c>
       <c r="J10">
-        <v>0.02666144970190763</v>
+        <v>0.05631807363594247</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.6885453333333333</v>
+        <v>0.2591196666666667</v>
       </c>
       <c r="N10">
-        <v>2.065636</v>
+        <v>0.777359</v>
       </c>
       <c r="O10">
-        <v>0.008714668183685523</v>
+        <v>0.004924768296087973</v>
       </c>
       <c r="P10">
-        <v>0.01136660482789667</v>
+        <v>0.006510434736312774</v>
       </c>
       <c r="Q10">
-        <v>2.436344676194667</v>
+        <v>0.9168674738153335</v>
       </c>
       <c r="R10">
-        <v>21.927102085752</v>
+        <v>8.251807264338002</v>
       </c>
       <c r="S10">
-        <v>0.0001866375673218665</v>
+        <v>0.0001900063685602891</v>
       </c>
       <c r="T10">
-        <v>0.0003030501629004274</v>
+        <v>0.0003666551428816605</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>10.615182</v>
       </c>
       <c r="I11">
-        <v>0.02141648579016069</v>
+        <v>0.03858178844905701</v>
       </c>
       <c r="J11">
-        <v>0.02666144970190763</v>
+        <v>0.05631807363594247</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>40.071356</v>
+        <v>22.207571</v>
       </c>
       <c r="N11">
-        <v>80.142712</v>
+        <v>44.415142</v>
       </c>
       <c r="O11">
-        <v>0.5071685977737647</v>
+        <v>0.422071944599301</v>
       </c>
       <c r="P11">
-        <v>0.4410024501605956</v>
+        <v>0.3719798488151091</v>
       </c>
       <c r="Q11">
-        <v>141.788245642264</v>
+        <v>78.57913598097402</v>
       </c>
       <c r="R11">
-        <v>850.7294738535841</v>
+        <v>471.4748158858441</v>
       </c>
       <c r="S11">
-        <v>0.01086176906743755</v>
+        <v>0.01628429047681234</v>
       </c>
       <c r="T11">
-        <v>0.01175776464337475</v>
+        <v>0.02094918851665606</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,40 +1169,40 @@
         <v>10.615182</v>
       </c>
       <c r="I12">
-        <v>0.02141648579016069</v>
+        <v>0.03858178844905701</v>
       </c>
       <c r="J12">
-        <v>0.02666144970190763</v>
+        <v>0.05631807363594247</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>11.700101</v>
+        <v>3.500938</v>
       </c>
       <c r="N12">
-        <v>35.100303</v>
+        <v>10.502814</v>
       </c>
       <c r="O12">
-        <v>0.1480839285294319</v>
+        <v>0.06653801577766373</v>
       </c>
       <c r="P12">
-        <v>0.1931469404776233</v>
+        <v>0.08796178483124543</v>
       </c>
       <c r="Q12">
-        <v>41.39956717779401</v>
+        <v>12.387698013572</v>
       </c>
       <c r="R12">
-        <v>372.5961046001461</v>
+        <v>111.489282122148</v>
       </c>
       <c r="S12">
-        <v>0.003171437351101749</v>
+        <v>0.00256715564855384</v>
       </c>
       <c r="T12">
-        <v>0.0051495774386215</v>
+        <v>0.004953838275275008</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,40 +1231,40 @@
         <v>10.615182</v>
       </c>
       <c r="I13">
-        <v>0.02141648579016069</v>
+        <v>0.03858178844905701</v>
       </c>
       <c r="J13">
-        <v>0.02666144970190763</v>
+        <v>0.05631807363594247</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>1.163127</v>
+        <v>0.2538816666666667</v>
       </c>
       <c r="N13">
-        <v>3.489381</v>
+        <v>0.761645</v>
       </c>
       <c r="O13">
-        <v>0.01472127595639153</v>
+        <v>0.00482521608275446</v>
       </c>
       <c r="P13">
-        <v>0.01920106684864657</v>
+        <v>0.006378828912688916</v>
       </c>
       <c r="Q13">
-        <v>4.115601598038</v>
+        <v>0.8983333660433335</v>
       </c>
       <c r="R13">
-        <v>37.04041438234201</v>
+        <v>8.085000294390001</v>
       </c>
       <c r="S13">
-        <v>0.0003152779973330934</v>
+        <v>0.0001861654661258201</v>
       </c>
       <c r="T13">
-        <v>0.0005119282780081565</v>
+        <v>0.0003592433564158932</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.338692</v>
+        <v>0.2280796666666667</v>
       </c>
       <c r="H14">
-        <v>1.016076</v>
+        <v>0.684239</v>
       </c>
       <c r="I14">
-        <v>0.002049967416076645</v>
+        <v>0.002486925268600606</v>
       </c>
       <c r="J14">
-        <v>0.002552010805591039</v>
+        <v>0.003630180093622854</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>15.2299415</v>
+        <v>16.237235</v>
       </c>
       <c r="N14">
-        <v>30.459883</v>
+        <v>32.47447</v>
       </c>
       <c r="O14">
-        <v>0.1927598375940027</v>
+        <v>0.3086011230749113</v>
       </c>
       <c r="P14">
-        <v>0.1676120348236415</v>
+        <v>0.2719759049954359</v>
       </c>
       <c r="Q14">
-        <v>5.158259346518</v>
+        <v>3.703383146388333</v>
       </c>
       <c r="R14">
-        <v>30.949556079108</v>
+        <v>22.22029887833</v>
       </c>
       <c r="S14">
-        <v>0.0003951513861959314</v>
+        <v>0.0007674679308935225</v>
       </c>
       <c r="T14">
-        <v>0.0004277477240170347</v>
+        <v>0.0009873215162594922</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.338692</v>
+        <v>0.2280796666666667</v>
       </c>
       <c r="H15">
-        <v>1.016076</v>
+        <v>0.684239</v>
       </c>
       <c r="I15">
-        <v>0.002049967416076645</v>
+        <v>0.002486925268600606</v>
       </c>
       <c r="J15">
-        <v>0.002552010805591039</v>
+        <v>0.003630180093622854</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>30.470581</v>
       </c>
       <c r="O15">
-        <v>0.1285516919627236</v>
+        <v>0.1930389321692816</v>
       </c>
       <c r="P15">
-        <v>0.1676709028615963</v>
+        <v>0.2551931977092077</v>
       </c>
       <c r="Q15">
-        <v>3.440047340017333</v>
+        <v>2.316573319206555</v>
       </c>
       <c r="R15">
-        <v>30.960426060156</v>
+        <v>20.849159872859</v>
       </c>
       <c r="S15">
-        <v>0.0002635267798051053</v>
+        <v>0.0004800733982354648</v>
       </c>
       <c r="T15">
-        <v>0.0004278979558859993</v>
+        <v>0.0009263972663519273</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.338692</v>
+        <v>0.2280796666666667</v>
       </c>
       <c r="H16">
-        <v>1.016076</v>
+        <v>0.684239</v>
       </c>
       <c r="I16">
-        <v>0.002049967416076645</v>
+        <v>0.002486925268600606</v>
       </c>
       <c r="J16">
-        <v>0.002552010805591039</v>
+        <v>0.003630180093622854</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.6885453333333333</v>
+        <v>0.2591196666666667</v>
       </c>
       <c r="N16">
-        <v>2.065636</v>
+        <v>0.777359</v>
       </c>
       <c r="O16">
-        <v>0.008714668183685523</v>
+        <v>0.004924768296087973</v>
       </c>
       <c r="P16">
-        <v>0.01136660482789667</v>
+        <v>0.006510434736312774</v>
       </c>
       <c r="Q16">
-        <v>0.2332047960373333</v>
+        <v>0.05909992720011112</v>
       </c>
       <c r="R16">
-        <v>2.098843164336</v>
+        <v>0.5318993448010001</v>
       </c>
       <c r="S16">
-        <v>1.786478581847516E-05</v>
+        <v>1.224753071754433E-05</v>
       </c>
       <c r="T16">
-        <v>2.900769834367556E-05</v>
+        <v>2.363405058059339E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.338692</v>
+        <v>0.2280796666666667</v>
       </c>
       <c r="H17">
-        <v>1.016076</v>
+        <v>0.684239</v>
       </c>
       <c r="I17">
-        <v>0.002049967416076645</v>
+        <v>0.002486925268600606</v>
       </c>
       <c r="J17">
-        <v>0.002552010805591039</v>
+        <v>0.003630180093622854</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>40.071356</v>
+        <v>22.207571</v>
       </c>
       <c r="N17">
-        <v>80.142712</v>
+        <v>44.415142</v>
       </c>
       <c r="O17">
-        <v>0.5071685977737647</v>
+        <v>0.422071944599301</v>
       </c>
       <c r="P17">
-        <v>0.4410024501605956</v>
+        <v>0.3719798488151091</v>
       </c>
       <c r="Q17">
-        <v>13.571847706352</v>
+        <v>5.065095391156334</v>
       </c>
       <c r="R17">
-        <v>81.431086238112</v>
+        <v>30.390572346938</v>
       </c>
       <c r="S17">
-        <v>0.001039679099893499</v>
+        <v>0.001049661384191397</v>
       </c>
       <c r="T17">
-        <v>0.001125443018101964</v>
+        <v>0.001350353842397448</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.338692</v>
+        <v>0.2280796666666667</v>
       </c>
       <c r="H18">
-        <v>1.016076</v>
+        <v>0.684239</v>
       </c>
       <c r="I18">
-        <v>0.002049967416076645</v>
+        <v>0.002486925268600606</v>
       </c>
       <c r="J18">
-        <v>0.002552010805591039</v>
+        <v>0.003630180093622854</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>11.700101</v>
+        <v>3.500938</v>
       </c>
       <c r="N18">
-        <v>35.100303</v>
+        <v>10.502814</v>
       </c>
       <c r="O18">
-        <v>0.1480839285294319</v>
+        <v>0.06653801577766373</v>
       </c>
       <c r="P18">
-        <v>0.1931469404776233</v>
+        <v>0.08796178483124543</v>
       </c>
       <c r="Q18">
-        <v>3.962730607892</v>
+        <v>0.7984927720606667</v>
       </c>
       <c r="R18">
-        <v>35.664575471028</v>
+        <v>7.186434948546001</v>
       </c>
       <c r="S18">
-        <v>0.000303567228329958</v>
+        <v>0.0001654750727600178</v>
       </c>
       <c r="T18">
-        <v>0.0004929130791657438</v>
+        <v>0.0003193171202939239</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.338692</v>
+        <v>0.2280796666666667</v>
       </c>
       <c r="H19">
-        <v>1.016076</v>
+        <v>0.684239</v>
       </c>
       <c r="I19">
-        <v>0.002049967416076645</v>
+        <v>0.002486925268600606</v>
       </c>
       <c r="J19">
-        <v>0.002552010805591039</v>
+        <v>0.003630180093622854</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>1.163127</v>
+        <v>0.2538816666666667</v>
       </c>
       <c r="N19">
-        <v>3.489381</v>
+        <v>0.761645</v>
       </c>
       <c r="O19">
-        <v>0.01472127595639153</v>
+        <v>0.00482521608275446</v>
       </c>
       <c r="P19">
-        <v>0.01920106684864657</v>
+        <v>0.006378828912688916</v>
       </c>
       <c r="Q19">
-        <v>0.393941809884</v>
+        <v>0.05790524590611112</v>
       </c>
       <c r="R19">
-        <v>3.545476288956</v>
+        <v>0.521147213155</v>
       </c>
       <c r="S19">
-        <v>3.017813603367518E-05</v>
+        <v>1.19999518026601E-05</v>
       </c>
       <c r="T19">
-        <v>4.900133007662191E-05</v>
+        <v>2.315629773946922E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.671782</v>
+        <v>1.3766805</v>
       </c>
       <c r="H20">
-        <v>7.343564</v>
+        <v>2.753361</v>
       </c>
       <c r="I20">
-        <v>0.02222383008437381</v>
+        <v>0.01501098967863444</v>
       </c>
       <c r="J20">
-        <v>0.01844434341481282</v>
+        <v>0.01460775590511139</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>15.2299415</v>
+        <v>16.237235</v>
       </c>
       <c r="N20">
-        <v>30.459883</v>
+        <v>32.47447</v>
       </c>
       <c r="O20">
-        <v>0.1927598375940027</v>
+        <v>0.3086011230749113</v>
       </c>
       <c r="P20">
-        <v>0.1676120348236415</v>
+        <v>0.2719759049954359</v>
       </c>
       <c r="Q20">
-        <v>55.921025060753</v>
+        <v>22.3534847984175</v>
       </c>
       <c r="R20">
-        <v>223.684100243012</v>
+        <v>89.41393919366999</v>
       </c>
       <c r="S20">
-        <v>0.004283861877780607</v>
+        <v>0.00463240827329249</v>
       </c>
       <c r="T20">
-        <v>0.003091493930742809</v>
+        <v>0.003972957632245095</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.671782</v>
+        <v>1.3766805</v>
       </c>
       <c r="H21">
-        <v>7.343564</v>
+        <v>2.753361</v>
       </c>
       <c r="I21">
-        <v>0.02222383008437381</v>
+        <v>0.01501098967863444</v>
       </c>
       <c r="J21">
-        <v>0.01844434341481282</v>
+        <v>0.01460775590511139</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>30.470581</v>
       </c>
       <c r="O21">
-        <v>0.1285516919627236</v>
+        <v>0.1930389321692816</v>
       </c>
       <c r="P21">
-        <v>0.1676709028615963</v>
+        <v>0.2551931977092077</v>
       </c>
       <c r="Q21">
-        <v>37.29377694844733</v>
+        <v>13.9827515621235</v>
       </c>
       <c r="R21">
-        <v>223.762661690684</v>
+        <v>83.89650937274099</v>
       </c>
       <c r="S21">
-        <v>0.002856910959238333</v>
+        <v>0.002897705418367699</v>
       </c>
       <c r="T21">
-        <v>0.003092579713051004</v>
+        <v>0.003727799940780939</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.671782</v>
+        <v>1.3766805</v>
       </c>
       <c r="H22">
-        <v>7.343564</v>
+        <v>2.753361</v>
       </c>
       <c r="I22">
-        <v>0.02222383008437381</v>
+        <v>0.01501098967863444</v>
       </c>
       <c r="J22">
-        <v>0.01844434341481282</v>
+        <v>0.01460775590511139</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>0.6885453333333333</v>
+        <v>0.2591196666666667</v>
       </c>
       <c r="N22">
-        <v>2.065636</v>
+        <v>0.777359</v>
       </c>
       <c r="O22">
-        <v>0.008714668183685523</v>
+        <v>0.004924768296087973</v>
       </c>
       <c r="P22">
-        <v>0.01136660482789667</v>
+        <v>0.006510434736312774</v>
       </c>
       <c r="Q22">
-        <v>2.528188361117333</v>
+        <v>0.3567249922665</v>
       </c>
       <c r="R22">
-        <v>15.169130166704</v>
+        <v>2.140349953599</v>
       </c>
       <c r="S22">
-        <v>0.0001936733049559256</v>
+        <v>7.392564606224268E-05</v>
       </c>
       <c r="T22">
-        <v>0.0002096495629061955</v>
+        <v>9.510284146421527E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.671782</v>
+        <v>1.3766805</v>
       </c>
       <c r="H23">
-        <v>7.343564</v>
+        <v>2.753361</v>
       </c>
       <c r="I23">
-        <v>0.02222383008437381</v>
+        <v>0.01501098967863444</v>
       </c>
       <c r="J23">
-        <v>0.01844434341481282</v>
+        <v>0.01460775590511139</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>40.071356</v>
+        <v>22.207571</v>
       </c>
       <c r="N23">
-        <v>80.142712</v>
+        <v>44.415142</v>
       </c>
       <c r="O23">
-        <v>0.5071685977737647</v>
+        <v>0.422071944599301</v>
       </c>
       <c r="P23">
-        <v>0.4410024501605956</v>
+        <v>0.3719798488151091</v>
       </c>
       <c r="Q23">
-        <v>147.133283676392</v>
+        <v>30.5727299480655</v>
       </c>
       <c r="R23">
-        <v>588.533134705568</v>
+        <v>122.290919792262</v>
       </c>
       <c r="S23">
-        <v>0.01127122874105427</v>
+        <v>0.006335717604021274</v>
       </c>
       <c r="T23">
-        <v>0.0081340006375359</v>
+        <v>0.005433790833111354</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,46 +1907,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.671782</v>
+        <v>1.3766805</v>
       </c>
       <c r="H24">
-        <v>7.343564</v>
+        <v>2.753361</v>
       </c>
       <c r="I24">
-        <v>0.02222383008437381</v>
+        <v>0.01501098967863444</v>
       </c>
       <c r="J24">
-        <v>0.01844434341481282</v>
+        <v>0.01460775590511139</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>11.700101</v>
+        <v>3.500938</v>
       </c>
       <c r="N24">
-        <v>35.100303</v>
+        <v>10.502814</v>
       </c>
       <c r="O24">
-        <v>0.1480839285294319</v>
+        <v>0.06653801577766373</v>
       </c>
       <c r="P24">
-        <v>0.1931469404776233</v>
+        <v>0.08796178483124543</v>
       </c>
       <c r="Q24">
-        <v>42.96022024998201</v>
+        <v>4.819673076309</v>
       </c>
       <c r="R24">
-        <v>257.761321499892</v>
+        <v>28.918038457854</v>
       </c>
       <c r="S24">
-        <v>0.00329099206586465</v>
+        <v>0.0009988014680753258</v>
       </c>
       <c r="T24">
-        <v>0.003562468499689695</v>
+        <v>0.001284924281792763</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.671782</v>
+        <v>1.3766805</v>
       </c>
       <c r="H25">
-        <v>7.343564</v>
+        <v>2.753361</v>
       </c>
       <c r="I25">
-        <v>0.02222383008437381</v>
+        <v>0.01501098967863444</v>
       </c>
       <c r="J25">
-        <v>0.01844434341481282</v>
+        <v>0.01460775590511139</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M25">
-        <v>1.163127</v>
+        <v>0.2538816666666667</v>
       </c>
       <c r="N25">
-        <v>3.489381</v>
+        <v>0.761645</v>
       </c>
       <c r="O25">
-        <v>0.01472127595639153</v>
+        <v>0.00482521608275446</v>
       </c>
       <c r="P25">
-        <v>0.01920106684864657</v>
+        <v>0.006378828912688916</v>
       </c>
       <c r="Q25">
-        <v>4.270748782314</v>
+        <v>0.3495139398075</v>
       </c>
       <c r="R25">
-        <v>25.624492693884</v>
+        <v>2.097083638845</v>
       </c>
       <c r="S25">
-        <v>0.0003271631354800229</v>
+        <v>7.24312688154081E-05</v>
       </c>
       <c r="T25">
-        <v>0.000354151070887215</v>
+        <v>9.318037571702681E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>63.60536699999999</v>
+        <v>1.226999666666667</v>
       </c>
       <c r="H26">
-        <v>190.816101</v>
+        <v>3.680999</v>
       </c>
       <c r="I26">
-        <v>0.3849778850329995</v>
+        <v>0.01337890624006168</v>
       </c>
       <c r="J26">
-        <v>0.4792601652167269</v>
+        <v>0.01952927163527018</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>15.2299415</v>
+        <v>16.237235</v>
       </c>
       <c r="N26">
-        <v>30.459883</v>
+        <v>32.47447</v>
       </c>
       <c r="O26">
-        <v>0.1927598375940027</v>
+        <v>0.3086011230749113</v>
       </c>
       <c r="P26">
-        <v>0.1676120348236415</v>
+        <v>0.2719759049954359</v>
       </c>
       <c r="Q26">
-        <v>968.7060184960304</v>
+        <v>19.92308193258833</v>
       </c>
       <c r="R26">
-        <v>5812.236110976182</v>
+        <v>119.53849159553</v>
       </c>
       <c r="S26">
-        <v>0.07420827459624363</v>
+        <v>0.004128745491196972</v>
       </c>
       <c r="T26">
-        <v>0.08032977150189022</v>
+        <v>0.005311491326904305</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>63.60536699999999</v>
+        <v>1.226999666666667</v>
       </c>
       <c r="H27">
-        <v>190.816101</v>
+        <v>3.680999</v>
       </c>
       <c r="I27">
-        <v>0.3849778850329995</v>
+        <v>0.01337890624006168</v>
       </c>
       <c r="J27">
-        <v>0.4792601652167269</v>
+        <v>0.01952927163527018</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>30.470581</v>
       </c>
       <c r="O27">
-        <v>0.1285516919627236</v>
+        <v>0.1930389321692816</v>
       </c>
       <c r="P27">
-        <v>0.1676709028615963</v>
+        <v>0.2551931977092077</v>
       </c>
       <c r="Q27">
-        <v>646.0308290694089</v>
+        <v>12.46246424337989</v>
       </c>
       <c r="R27">
-        <v>5814.27746162468</v>
+        <v>112.162178190419</v>
       </c>
       <c r="S27">
-        <v>0.04948955848922299</v>
+        <v>0.002582649774174444</v>
       </c>
       <c r="T27">
-        <v>0.08035798460748642</v>
+        <v>0.004983737277536326</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,46 +2155,46 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>63.60536699999999</v>
+        <v>1.226999666666667</v>
       </c>
       <c r="H28">
-        <v>190.816101</v>
+        <v>3.680999</v>
       </c>
       <c r="I28">
-        <v>0.3849778850329995</v>
+        <v>0.01337890624006168</v>
       </c>
       <c r="J28">
-        <v>0.4792601652167269</v>
+        <v>0.01952927163527018</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M28">
-        <v>0.6885453333333333</v>
+        <v>0.2591196666666667</v>
       </c>
       <c r="N28">
-        <v>2.065636</v>
+        <v>0.777359</v>
       </c>
       <c r="O28">
-        <v>0.008714668183685523</v>
+        <v>0.004924768296087973</v>
       </c>
       <c r="P28">
-        <v>0.01136660482789667</v>
+        <v>0.006510434736312774</v>
       </c>
       <c r="Q28">
-        <v>43.79517862280399</v>
+        <v>0.3179397446267778</v>
       </c>
       <c r="R28">
-        <v>394.1566076052359</v>
+        <v>2.861457701641</v>
       </c>
       <c r="S28">
-        <v>0.003354954526119624</v>
+        <v>6.58880132873893E-05</v>
       </c>
       <c r="T28">
-        <v>0.005447560907771002</v>
+        <v>0.0001271440484291508</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>63.60536699999999</v>
+        <v>1.226999666666667</v>
       </c>
       <c r="H29">
-        <v>190.816101</v>
+        <v>3.680999</v>
       </c>
       <c r="I29">
-        <v>0.3849778850329995</v>
+        <v>0.01337890624006168</v>
       </c>
       <c r="J29">
-        <v>0.4792601652167269</v>
+        <v>0.01952927163527018</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>40.071356</v>
+        <v>22.207571</v>
       </c>
       <c r="N29">
-        <v>80.142712</v>
+        <v>44.415142</v>
       </c>
       <c r="O29">
-        <v>0.5071685977737647</v>
+        <v>0.422071944599301</v>
       </c>
       <c r="P29">
-        <v>0.4410024501605956</v>
+        <v>0.3719798488151091</v>
       </c>
       <c r="Q29">
-        <v>2548.753304567652</v>
+        <v>27.24868221447634</v>
       </c>
       <c r="R29">
-        <v>15292.51982740591</v>
+        <v>163.492093286858</v>
       </c>
       <c r="S29">
-        <v>0.1952486941260959</v>
+        <v>0.005646860973354556</v>
       </c>
       <c r="T29">
-        <v>0.2113549071249484</v>
+        <v>0.007264495510357002</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,46 +2279,46 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>63.60536699999999</v>
+        <v>1.226999666666667</v>
       </c>
       <c r="H30">
-        <v>190.816101</v>
+        <v>3.680999</v>
       </c>
       <c r="I30">
-        <v>0.3849778850329995</v>
+        <v>0.01337890624006168</v>
       </c>
       <c r="J30">
-        <v>0.4792601652167269</v>
+        <v>0.01952927163527018</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M30">
-        <v>11.700101</v>
+        <v>3.500938</v>
       </c>
       <c r="N30">
-        <v>35.100303</v>
+        <v>10.502814</v>
       </c>
       <c r="O30">
-        <v>0.1480839285294319</v>
+        <v>0.06653801577766373</v>
       </c>
       <c r="P30">
-        <v>0.1931469404776233</v>
+        <v>0.08796178483124543</v>
       </c>
       <c r="Q30">
-        <v>744.1892180420671</v>
+        <v>4.295649759020667</v>
       </c>
       <c r="R30">
-        <v>6697.702962378603</v>
+        <v>38.660847831186</v>
       </c>
       <c r="S30">
-        <v>0.05700903761263855</v>
+        <v>0.0008902058744891077</v>
       </c>
       <c r="T30">
-        <v>0.09256763460441104</v>
+        <v>0.00171782958949258</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,46 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>63.60536699999999</v>
+        <v>1.226999666666667</v>
       </c>
       <c r="H31">
-        <v>190.816101</v>
+        <v>3.680999</v>
       </c>
       <c r="I31">
-        <v>0.3849778850329995</v>
+        <v>0.01337890624006168</v>
       </c>
       <c r="J31">
-        <v>0.4792601652167269</v>
+        <v>0.01952927163527018</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L31">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M31">
-        <v>1.163127</v>
+        <v>0.2538816666666667</v>
       </c>
       <c r="N31">
-        <v>3.489381</v>
+        <v>0.761645</v>
       </c>
       <c r="O31">
-        <v>0.01472127595639153</v>
+        <v>0.00482521608275446</v>
       </c>
       <c r="P31">
-        <v>0.01920106684864657</v>
+        <v>0.006378828912688916</v>
       </c>
       <c r="Q31">
-        <v>73.98111970260899</v>
+        <v>0.3115127203727778</v>
       </c>
       <c r="R31">
-        <v>665.830077323481</v>
+        <v>2.803614483355</v>
       </c>
       <c r="S31">
-        <v>0.005667365682678759</v>
+        <v>6.455611355920961E-05</v>
       </c>
       <c r="T31">
-        <v>0.00920230647021977</v>
+        <v>0.000124573882550817</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>0.2282923333333333</v>
+        <v>0.06975166666666667</v>
       </c>
       <c r="H32">
-        <v>0.684877</v>
+        <v>0.209255</v>
       </c>
       <c r="I32">
-        <v>0.001381762322917109</v>
+        <v>0.0007605552257047901</v>
       </c>
       <c r="J32">
-        <v>0.001720160208981192</v>
+        <v>0.001110187135622276</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>15.2299415</v>
+        <v>16.237235</v>
       </c>
       <c r="N32">
-        <v>30.459883</v>
+        <v>32.47447</v>
       </c>
       <c r="O32">
-        <v>0.1927598375940027</v>
+        <v>0.3086011230749113</v>
       </c>
       <c r="P32">
-        <v>0.1676120348236415</v>
+        <v>0.2719759049954359</v>
       </c>
       <c r="Q32">
-        <v>3.476878881565167</v>
+        <v>1.132574203308333</v>
       </c>
       <c r="R32">
-        <v>20.861273289391</v>
+        <v>6.795445219849999</v>
       </c>
       <c r="S32">
-        <v>0.0002663482809590138</v>
+        <v>0.0002347081968129909</v>
       </c>
       <c r="T32">
-        <v>0.0002883195528499981</v>
+        <v>0.0003019441509251592</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>0.2282923333333333</v>
+        <v>0.06975166666666667</v>
       </c>
       <c r="H33">
-        <v>0.684877</v>
+        <v>0.209255</v>
       </c>
       <c r="I33">
-        <v>0.001381762322917109</v>
+        <v>0.0007605552257047901</v>
       </c>
       <c r="J33">
-        <v>0.001720160208981192</v>
+        <v>0.001110187135622276</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>30.470581</v>
       </c>
       <c r="O33">
-        <v>0.1285516919627236</v>
+        <v>0.1930389321692816</v>
       </c>
       <c r="P33">
-        <v>0.1676709028615963</v>
+        <v>0.2551931977092077</v>
       </c>
       <c r="Q33">
-        <v>2.318733344837444</v>
+        <v>0.7084579363505555</v>
       </c>
       <c r="R33">
-        <v>20.868600103537</v>
+        <v>6.376121427155</v>
       </c>
       <c r="S33">
-        <v>0.0001776278845013376</v>
+        <v>0.0001468167686258196</v>
       </c>
       <c r="T33">
-        <v>0.0002884208153064687</v>
+        <v>0.0002833122051950744</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>0.2282923333333333</v>
+        <v>0.06975166666666667</v>
       </c>
       <c r="H34">
-        <v>0.684877</v>
+        <v>0.209255</v>
       </c>
       <c r="I34">
-        <v>0.001381762322917109</v>
+        <v>0.0007605552257047901</v>
       </c>
       <c r="J34">
-        <v>0.001720160208981192</v>
+        <v>0.001110187135622276</v>
       </c>
       <c r="K34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L34">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M34">
-        <v>0.6885453333333333</v>
+        <v>0.2591196666666667</v>
       </c>
       <c r="N34">
-        <v>2.065636</v>
+        <v>0.777359</v>
       </c>
       <c r="O34">
-        <v>0.008714668183685523</v>
+        <v>0.004924768296087973</v>
       </c>
       <c r="P34">
-        <v>0.01136660482789667</v>
+        <v>0.006510434736312774</v>
       </c>
       <c r="Q34">
-        <v>0.1571896207524444</v>
+        <v>0.01807402861611111</v>
       </c>
       <c r="R34">
-        <v>1.414706586772</v>
+        <v>0.162666257545</v>
       </c>
       <c r="S34">
-        <v>1.204160015294113E-05</v>
+        <v>3.745558262974983E-06</v>
       </c>
       <c r="T34">
-        <v>1.955238133616136E-05</v>
+        <v>7.227800891562845E-06</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>0.2282923333333333</v>
+        <v>0.06975166666666667</v>
       </c>
       <c r="H35">
-        <v>0.684877</v>
+        <v>0.209255</v>
       </c>
       <c r="I35">
-        <v>0.001381762322917109</v>
+        <v>0.0007605552257047901</v>
       </c>
       <c r="J35">
-        <v>0.001720160208981192</v>
+        <v>0.001110187135622276</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>40.071356</v>
+        <v>22.207571</v>
       </c>
       <c r="N35">
-        <v>80.142712</v>
+        <v>44.415142</v>
       </c>
       <c r="O35">
-        <v>0.5071685977737647</v>
+        <v>0.422071944599301</v>
       </c>
       <c r="P35">
-        <v>0.4410024501605956</v>
+        <v>0.3719798488151091</v>
       </c>
       <c r="Q35">
-        <v>9.147983361070667</v>
+        <v>1.549015089868333</v>
       </c>
       <c r="R35">
-        <v>54.887900166424</v>
+        <v>9.29409053921</v>
       </c>
       <c r="S35">
-        <v>0.0007007864597704897</v>
+        <v>0.0003210090230883811</v>
       </c>
       <c r="T35">
-        <v>0.0007585948668294679</v>
+        <v>0.0004129672428652532</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>0.2282923333333333</v>
+        <v>0.06975166666666667</v>
       </c>
       <c r="H36">
-        <v>0.684877</v>
+        <v>0.209255</v>
       </c>
       <c r="I36">
-        <v>0.001381762322917109</v>
+        <v>0.0007605552257047901</v>
       </c>
       <c r="J36">
-        <v>0.001720160208981192</v>
+        <v>0.001110187135622276</v>
       </c>
       <c r="K36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L36">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M36">
-        <v>11.700101</v>
+        <v>3.500938</v>
       </c>
       <c r="N36">
-        <v>35.100303</v>
+        <v>10.502814</v>
       </c>
       <c r="O36">
-        <v>0.1480839285294319</v>
+        <v>0.06653801577766373</v>
       </c>
       <c r="P36">
-        <v>0.1931469404776233</v>
+        <v>0.08796178483124543</v>
       </c>
       <c r="Q36">
-        <v>2.671043357525667</v>
+        <v>0.2441962603966667</v>
       </c>
       <c r="R36">
-        <v>24.039390217731</v>
+        <v>2.19776634357</v>
       </c>
       <c r="S36">
-        <v>0.0002046167930715189</v>
+        <v>5.060583560772993E-05</v>
       </c>
       <c r="T36">
-        <v>0.0003322436814960664</v>
+        <v>9.765404194602331E-05</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>0.2282923333333333</v>
+        <v>0.06975166666666667</v>
       </c>
       <c r="H37">
-        <v>0.684877</v>
+        <v>0.209255</v>
       </c>
       <c r="I37">
-        <v>0.001381762322917109</v>
+        <v>0.0007605552257047901</v>
       </c>
       <c r="J37">
-        <v>0.001720160208981192</v>
+        <v>0.001110187135622276</v>
       </c>
       <c r="K37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L37">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M37">
-        <v>1.163127</v>
+        <v>0.2538816666666667</v>
       </c>
       <c r="N37">
-        <v>3.489381</v>
+        <v>0.761645</v>
       </c>
       <c r="O37">
-        <v>0.01472127595639153</v>
+        <v>0.00482521608275446</v>
       </c>
       <c r="P37">
-        <v>0.01920106684864657</v>
+        <v>0.006378828912688916</v>
       </c>
       <c r="Q37">
-        <v>0.265532976793</v>
+        <v>0.01770866938611111</v>
       </c>
       <c r="R37">
-        <v>2.389796791137</v>
+        <v>0.159378024475</v>
       </c>
       <c r="S37">
-        <v>2.034130446180734E-05</v>
+        <v>3.669843306893702E-06</v>
       </c>
       <c r="T37">
-        <v>3.302891116302971E-05</v>
+        <v>7.081693799202663E-06</v>
       </c>
     </row>
   </sheetData>
